--- a/summary/Antibiotic_gene.xlsx
+++ b/summary/Antibiotic_gene.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzherrmann/Projects/Antibiotic_resistance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzherrmann/Projects/Antibiotic_resistance/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080351D0-58CF-7A4F-B5C8-1248B4A15A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE305FF-D366-434D-88D9-7F3B676064F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="-2020" windowWidth="27640" windowHeight="18360" activeTab="1" xr2:uid="{FF2F3A89-BDAA-6B4B-8FF7-A9AF6B05F648}"/>
+    <workbookView xWindow="2840" yWindow="640" windowWidth="24820" windowHeight="15540" activeTab="1" xr2:uid="{FF2F3A89-BDAA-6B4B-8FF7-A9AF6B05F648}"/>
   </bookViews>
   <sheets>
     <sheet name="CARD" sheetId="1" r:id="rId1"/>
@@ -1660,11 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BD683-2AFA-1F42-A943-1BBBEA3FC21D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>118</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -5491,7 +5490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>118</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>362</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>362</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>362</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>362</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>362</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>362</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>362</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>362</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>362</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>362</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>362</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>362</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>362</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>362</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>362</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>362</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>362</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>362</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>362</v>
       </c>
@@ -7371,7 +7370,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>362</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>362</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>362</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>362</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>362</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>362</v>
       </c>
@@ -7700,7 +7699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>362</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>362</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>362</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>362</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>362</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>362</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>362</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>362</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>362</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>362</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>362</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>362</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>362</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>362</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>362</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>362</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>362</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>362</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>362</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>362</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>362</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>362</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>362</v>
       </c>
@@ -8923,16 +8922,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O154" xr:uid="{FA0EEAFD-8799-A54B-AC55-08547A8BE035}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="AAC(6')-Ii"/>
-        <filter val="APH(3'')-Ib"/>
-        <filter val="APH(3')-IIIa"/>
-        <filter val="APH(6)-Id"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O154" xr:uid="{FA0EEAFD-8799-A54B-AC55-08547A8BE035}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8941,8 +8931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E26BB9-F062-4143-A255-55FCDF4AD6D9}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
